--- a/data/input/absenteeism_data_8.xlsx
+++ b/data/input/absenteeism_data_8.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77930</v>
+        <v>57023</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Guilherme Cardoso</t>
+          <t>Cauê Martins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,22 +494,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>2570.24</v>
+        <v>6553.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>24578</v>
+        <v>93613</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leandro Pires</t>
+          <t>Dr. Yago Teixeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,26 +519,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>8121.99</v>
+        <v>8727.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17702</v>
+        <v>91369</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Milena Martins</t>
+          <t>Dr. Thales Santos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,176 +548,176 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>5436.9</v>
+        <v>12076.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19629</v>
+        <v>3372</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Maria Fernanda Vieira</t>
+          <t>Alexia Barbosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>2599.03</v>
+        <v>7077.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42723</v>
+        <v>61907</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Enrico Duarte</t>
+          <t>Ana Clara Novaes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>10793.92</v>
+        <v>8394.370000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86734</v>
+        <v>97199</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agatha Cavalcanti</t>
+          <t>Lívia Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>4831.04</v>
+        <v>4173.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42383</v>
+        <v>66232</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Bianca Dias</t>
+          <t>Nicolas Mendes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>4340.37</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15619</v>
+        <v>62515</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manuela Pires</t>
+          <t>Ana Júlia Barbosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>11758.99</v>
+        <v>4257.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44993</v>
+        <v>20635</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alexandre Barros</t>
+          <t>Maria Vitória Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>9152.76</v>
+        <v>6467.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35009</v>
+        <v>38187</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Guilherme Cardoso</t>
+          <t>Natália Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>4537.97</v>
+        <v>6395.75</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_8.xlsx
+++ b/data/input/absenteeism_data_8.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57023</v>
+        <v>85059</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cauê Martins</t>
+          <t>Emilly da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>6553.9</v>
+        <v>10051.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93613</v>
+        <v>35302</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Yago Teixeira</t>
+          <t>Vicente Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,26 +519,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>8727.18</v>
+        <v>4927.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91369</v>
+        <v>29892</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Thales Santos</t>
+          <t>Isadora Correia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,31 +548,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>12076.9</v>
+        <v>9601.280000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3372</v>
+        <v>75611</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexia Barbosa</t>
+          <t>Laís Barbosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,80 +581,80 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>7077.37</v>
+        <v>4592.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61907</v>
+        <v>90264</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Clara Novaes</t>
+          <t>Gustavo Henrique Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>8394.370000000001</v>
+        <v>12094.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97199</v>
+        <v>8699</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lívia Cardoso</t>
+          <t>Dra. Ana Lívia Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>4173.9</v>
+        <v>5100.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66232</v>
+        <v>42034</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nicolas Mendes</t>
+          <t>João Guilherme Carvalho</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,19 +671,19 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>4887</v>
+        <v>12163.74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62515</v>
+        <v>29445</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Júlia Barbosa</t>
+          <t>Sr. Benício Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,31 +693,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>4257.83</v>
+        <v>6417.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20635</v>
+        <v>91242</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Vitória Cardoso</t>
+          <t>Fernando Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>6467.66</v>
+        <v>7321.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38187</v>
+        <v>8315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Natália Rocha</t>
+          <t>Cauã Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>6395.75</v>
+        <v>8419.129999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_8.xlsx
+++ b/data/input/absenteeism_data_8.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85059</v>
+        <v>25165</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emilly da Costa</t>
+          <t>Dr. Pietro da Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,48 +497,48 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>10051.41</v>
+        <v>11763.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35302</v>
+        <v>99973</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vicente Viana</t>
+          <t>Srta. Maitê Moreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>4927.09</v>
+        <v>5070.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29892</v>
+        <v>62592</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isadora Correia</t>
+          <t>Isadora Santos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,31 +548,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>9601.280000000001</v>
+        <v>12459.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75611</v>
+        <v>32265</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laís Barbosa</t>
+          <t>Isabel Pinto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>4592.5</v>
+        <v>11268.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90264</v>
+        <v>85522</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Gomes</t>
+          <t>Julia Campos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>12094.92</v>
+        <v>11261.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8699</v>
+        <v>96362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Ana Lívia Cardoso</t>
+          <t>Pedro Henrique da Conceição</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>5100.01</v>
+        <v>10518.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42034</v>
+        <v>44945</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Guilherme Carvalho</t>
+          <t>João Guilherme da Mata</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>12163.74</v>
+        <v>7505.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29445</v>
+        <v>89954</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Benício Duarte</t>
+          <t>Srta. Isabella da Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>6417.65</v>
+        <v>5629.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91242</v>
+        <v>73793</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fernando Moura</t>
+          <t>Maria Eduarda Campos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>7321.45</v>
+        <v>10855.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>33598</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cauã Cardoso</t>
+          <t>Sra. Maysa Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>8419.129999999999</v>
+        <v>11461.13</v>
       </c>
     </row>
   </sheetData>
